--- a/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 6,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,42; 4,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,19; 1,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,14; 1,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,35; 2,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,11; 1,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,45; 1,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,0; 0,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,12; 0,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,0; 0,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,12; 1,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,0; 0,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,05; 0,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,06; 0,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,17; 1,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,03; 0,3</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,17; 1,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,35; 2,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,38; 2,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,14; 1,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,25; 1,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,2; 1,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,16; 1,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,09; 1,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,38; 1,64</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1284,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,13; 1,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,12; 1,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,13; 1,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,38; 1,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,42; 1,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,28; 1,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,38; 1,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,33; 1,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,0; 0,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,26; 0,94</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,19; 0,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,37; 1,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,04; 0,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,27; 0,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,33; 0,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,37; 0,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,08; 0,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,26; 0,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,29; 0,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,42; 0,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,08; 0,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,31; 0,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,31; 1,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,86</t>
+          <t>0,22; 1,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0,44; 2,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,0; 0,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,09; 0,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,02</t>
+          <t>0,53; 1,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,08; 0,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,15; 0,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,37 +796,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,75</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,6</t>
+          <t>0,0; 0,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,37</t>
+          <t>0,12; 1,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 0,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,05; 0,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,01</t>
+          <t>0,06; 0,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,72</t>
+          <t>0,17; 1,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,96</t>
+          <t>0,02; 0,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,17; 1,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,35; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,28</t>
+          <t>0,37; 2,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>0,14; 1,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,1</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,6</t>
+          <t>0,18; 1,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,6</t>
+          <t>0,2; 1,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,04</t>
+          <t>0,16; 1,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,5</t>
+          <t>0,09; 1,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,3</t>
+          <t>0,31; 1,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>0,47%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,39</t>
+          <t>0,13; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,44</t>
+          <t>0,12; 1,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,94</t>
+          <t>0,11; 0,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,47</t>
+          <t>0,38; 1,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,42; 1,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,38</t>
+          <t>0,26; 1,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,05</t>
+          <t>0,38; 1,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,28</t>
+          <t>0,33; 1,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,03</t>
+          <t>0,0; 0,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,64</t>
+          <t>0,24; 0,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,15</t>
+          <t>0,19; 0,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,04</t>
+          <t>0,37; 1,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,04; 0,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,0</t>
+          <t>0,25; 0,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,88</t>
+          <t>0,33; 0,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,6</t>
+          <t>0,37; 0,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,08; 0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,31</t>
+          <t>0,24; 0,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,3</t>
+          <t>0,29; 0,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,08</t>
+          <t>0,42; 0,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,4</t>
+          <t>0,08; 0,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,94</t>
+          <t>0,28; 0,62</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 1,02</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 0,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 0,87</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 0,93</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,69</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 0,68</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 0,86</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,9</t>
+          <t>0,32; 1,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,69</t>
+          <t>0,22; 1,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,37</t>
+          <t>0,32; 2,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,51</t>
+          <t>0,0; 0,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,86</t>
+          <t>0,09; 0,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,73</t>
+          <t>0,52; 1,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,75</t>
+          <t>0,09; 0,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,93</t>
+          <t>0,14; 0,95</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,32 +880,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,22</t>
+          <t>0,0; 0,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,1</t>
+          <t>0,11; 1,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,57</t>
+          <t>0,05; 0,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,6</t>
+          <t>0,06; 0,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,5</t>
+          <t>0,0; 0,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,26</t>
+          <t>0,02; 0,27</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,39</t>
+          <t>0,17; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,44</t>
+          <t>0,32; 2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,89</t>
+          <t>0,31; 2,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,47</t>
+          <t>0,14; 1,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,1</t>
+          <t>0,13; 1,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,05</t>
+          <t>0,19; 1,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,28</t>
+          <t>0,16; 1,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,03</t>
+          <t>0,09; 0,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,51</t>
+          <t>0,35; 1,56</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,15</t>
+          <t>0,13; 1,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,04</t>
+          <t>0,12; 0,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,91</t>
+          <t>0,11; 0,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,88</t>
+          <t>0,37; 1,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,6</t>
+          <t>0,42; 1,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,22 +1180,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,24</t>
+          <t>0,26; 1,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,3</t>
+          <t>0,37; 1,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,08</t>
+          <t>0,34; 1,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,4</t>
+          <t>0,0; 0,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,68</t>
+          <t>0,15; 0,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,02</t>
+          <t>0,34; 0,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,4</t>
+          <t>0,03; 0,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,88</t>
+          <t>0,24; 0,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,87</t>
+          <t>0,28; 0,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,93</t>
+          <t>0,36; 0,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,52</t>
+          <t>0,07; 0,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,63</t>
+          <t>0,22; 0,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,68</t>
+          <t>0,29; 0,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,86</t>
+          <t>0,43; 0,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,34</t>
+          <t>0,08; 0,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,62</t>
+          <t>0,28; 0,61</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por selladores, aplicación de fluor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5565</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6747</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3037</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5287</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4805</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1919; 12079</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4933</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1334; 11287</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6799</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2047; 14227</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8362</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3381</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>912; 8021</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6486; 21591</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>913; 8919</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1747; 11940</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1757</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7635</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2362</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2269</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4684</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13786</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5819</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2673</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7254</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>980; 9501</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7112</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>439; 5149</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>934; 8873</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3067; 18437</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8304</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>506; 5719</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6134</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7052</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2868</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2592</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4737</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6134</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3614</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11789</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>945; 7696</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2037; 13833</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5664</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2117; 18911</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>798; 7547</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2115</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9245</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1244; 10970</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2119; 12249</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2044; 14768</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1026; 10775</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5613; 25035</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3585</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7655</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7909</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6041</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11240</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10793</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9169</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>904; 8998</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>930; 7705</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5165</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1010; 7882</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3041; 15219</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3907; 14846</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2068</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2768; 12673</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5625; 19707</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5859; 18595</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5311</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4751; 16803</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8367</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14985</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14810</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18832</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13529</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23177</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>36875</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10049</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28514</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3726; 15823</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9985; 28863</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>915; 9708</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7900; 28637</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7794; 24415</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11232; 30227</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2128; 12298</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7857; 21978</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14889; 34083</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25791; 51555</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4368; 19251</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19151; 42190</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>